--- a/biology/Médecine/Pierre_Godeau_(médecin)/Pierre_Godeau_(médecin).xlsx
+++ b/biology/Médecine/Pierre_Godeau_(médecin)/Pierre_Godeau_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Godeau_(m%C3%A9decin)</t>
+          <t>Pierre_Godeau_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Godeau, né le 5 juin 1930 dans le 4e arrondissement de Paris et mort le 11 octobre 2018 à Créteil [1],[2], est un médecin interniste. Ancien chef de service à l'Hôpital de la Salpêtrière, ancien membre du Conseil national des universités, membre titulaire de l'Académie de médecine depuis le 30 mai 2000 et auteur du célèbre Traité de médecine surnommé « le Godeau ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Godeau, né le 5 juin 1930 dans le 4e arrondissement de Paris et mort le 11 octobre 2018 à Créteil  est un médecin interniste. Ancien chef de service à l'Hôpital de la Salpêtrière, ancien membre du Conseil national des universités, membre titulaire de l'Académie de médecine depuis le 30 mai 2000 et auteur du célèbre Traité de médecine surnommé « le Godeau ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Godeau_(m%C3%A9decin)</t>
+          <t>Pierre_Godeau_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'élève de Fred Siguier à l'Hôpital de la Pitié.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Godeau_(m%C3%A9decin)</t>
+          <t>Pierre_Godeau_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité de médecine, Pierre Godeau, Serge Herson, Jean-Charles Piette, éditions Flammarion coll. « Médecine-Sciences »,  (ISBN 2-257-14286-1).
 Les Héritiers d'Hippocrate  - Mémoires d'un médecin du siècle, Pierre Godeau,  (ISBN 2-08-067786-1).
